--- a/UPS/bin/Debug/data/BatteryData.xlsx
+++ b/UPS/bin/Debug/data/BatteryData.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOLSTOVA\source\repos\UPS\UPS\bin\Debug\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolstova\source\repos\AlexandrTolstov\UPS_Legrand\UPS\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B74946-425D-4BC9-8936-65DBF8714C14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE69277-D1C1-4270-9FA5-2CDA7CF86201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discharge constant" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Артикул Legrand</t>
   </si>
@@ -156,6 +157,18 @@
   </si>
   <si>
     <t>12В, 105Ач</t>
+  </si>
+  <si>
+    <t>GPL 1 2-100</t>
+  </si>
+  <si>
+    <t>GPL</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>Battery 12 V 100 Ah</t>
   </si>
 </sst>
 </file>
@@ -197,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -240,11 +253,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -262,14 +288,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,37 +640,37 @@
     <col min="24" max="24" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="9" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="13" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -704,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -768,11 +808,11 @@
       <c r="U3" s="3">
         <v>8.3166666666666664</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -836,17 +876,17 @@
       <c r="U4" s="3">
         <v>56.5</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="9">
         <v>310632</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -910,17 +950,17 @@
       <c r="U5" s="3">
         <v>95.833333333333329</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="9">
         <v>310634</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -984,11 +1024,11 @@
       <c r="U6" s="3">
         <v>19.666666666666668</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1052,17 +1092,17 @@
       <c r="U7" s="3">
         <v>28.5</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="9">
         <v>310630</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1090,12 +1130,8 @@
       <c r="I8" s="3">
         <v>12</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3">
         <v>258.16666666666669</v>
       </c>
@@ -1126,11 +1162,11 @@
       <c r="U8" s="3">
         <v>39.333333333333336</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1158,12 +1194,8 @@
       <c r="I9" s="3">
         <v>12</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3">
         <v>480</v>
       </c>
@@ -1194,17 +1226,17 @@
       <c r="U9" s="3">
         <v>75.666666666666671</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="9">
         <v>310633</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="X9" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1268,17 +1300,17 @@
       <c r="U10" s="3">
         <v>110</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="9">
         <v>310635</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="W10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="12" t="s">
+      <c r="X10" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1342,77 +1374,128 @@
       <c r="U11" s="3">
         <v>143.83333333333334</v>
       </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="12">
         <v>311001</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="11">
         <v>13</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="11">
         <v>51</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="11">
         <v>12</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="11">
         <v>162</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="11">
         <v>121</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="11">
         <v>106</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="11">
         <v>96</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="11">
         <v>82</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="11">
         <v>70</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="11">
         <v>53</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="11">
         <v>42</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="11">
         <v>31</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="11">
         <v>21</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="11">
         <v>17</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="11">
         <v>13</v>
       </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3">
+        <v>108</v>
+      </c>
+      <c r="H13" s="3">
+        <v>400</v>
+      </c>
+      <c r="I13" s="3">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3">
+        <v>378</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
+        <v>278.5</v>
+      </c>
+      <c r="S13" s="3">
+        <v>201</v>
+      </c>
+      <c r="T13" s="3">
+        <v>163.75</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
